--- a/similarities/split_global/harmonic_similarity_timestamps_42.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+          <t>('0:00:08.540000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:00:29.220000', '0:01:02.420000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab'], ['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.950000', '0:00:14.410000'), ('0:01:33.270000', '0:01:42.970000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:03.680000'), ('0:00:14.900000', '0:00:20.360000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=6.95', 'https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:06.040000', '0:02:07.180000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'F#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:22.168299', '0:00:27.450839')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=22.168299']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C'], ['G', 'C', 'G/3']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:35.056893'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:01:27.910000', '0:01:48.850000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:01:06.427052', '0:01:11.593492')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=87.91</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000'), ('0:00:08.400000', '0:00:12.140000')]</t>
+          <t>('0:00:35.888000', '0:00:38.359000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:17.920000'), ('0:00:43.180000', '0:00:45.100000'), ('0:01:27.680000', '0:01:38.020000')]</t>
+          <t>('0:00:07.300000', '0:00:10.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=87.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:20.240000', '0:00:26.720000')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:12.921927', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=20.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:01:08.800000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:00:37.750000', '0:00:41.100000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'B:maj', 'F#:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:10.960000', '0:00:12.940000')]</t>
+          <t>('0:01:05.280000', '0:01:17.760000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:33.814625', '0:00:37.738798')]</t>
+          <t>('0:00:33.480000', '0:00:46.320000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=33.814625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj6', 'G:7', 'C:7', 'F:maj6', 'D:min7', 'A:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min7', 'C:7', 'F:7', 'G:min7', 'Bb:maj6', 'D:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:44.780000', '0:00:53.510000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:02.820000'), ('0:01:10.980000', '0:01:20.440000')]</t>
+          <t>('0:00:03.050000', '0:00:16.050000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=44.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_140</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:min', 'G:(3,5,b7,b9)/C', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:45.200000', '0:01:52.400000'), ('0:00:19.980000', '0:00:28.900000')]</t>
+          <t>('0:00:57.860000', '0:01:03.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:26.260000', '0:01:32.700000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:31', '0:00:43.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=105.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=57.86</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=86.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=31.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:16.277000')]</t>
+          <t>('0:01:32.746870', '0:01:36.589773')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:37.773990', '0:01:42.557301')]</t>
+          <t>('0:00:56.880000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=92.74687</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-67#t=97.77399']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
